--- a/relatorios/repasses_liberados/dentistas/12323355414/2023-08-25_relatorio_repasses_12323355414.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12323355414/2023-08-25_relatorio_repasses_12323355414.xlsx
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.3</v>
+        <v>65</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -731,7 +731,7 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -819,7 +819,7 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1127,7 +1127,7 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N25">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.3</v>
+        <v>0.1</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2139,7 +2139,7 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N36">
         <v>0</v>

--- a/relatorios/repasses_liberados/dentistas/12323355414/2023-08-25_relatorio_repasses_12323355414.xlsx
+++ b/relatorios/repasses_liberados/dentistas/12323355414/2023-08-25_relatorio_repasses_12323355414.xlsx
@@ -643,7 +643,7 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -687,7 +687,7 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -775,7 +775,7 @@
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -863,7 +863,7 @@
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -951,7 +951,7 @@
         <v>0</v>
       </c>
       <c r="M9">
-        <v>65</v>
+        <v>0.3</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.3</v>
+        <v>0.5</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1347,7 +1347,7 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1391,7 +1391,7 @@
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1523,7 +1523,7 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1611,7 +1611,7 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>2</v>
+        <v>0.3</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1743,7 +1743,7 @@
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -2095,7 +2095,7 @@
         <v>0</v>
       </c>
       <c r="M35">
-        <v>0.1</v>
+        <v>0.3</v>
       </c>
       <c r="N35">
         <v>0</v>
@@ -2667,7 +2667,7 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N48">
         <v>0</v>
@@ -2931,7 +2931,7 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N54">
         <v>0</v>
@@ -2975,7 +2975,7 @@
         <v>0</v>
       </c>
       <c r="M55">
-        <v>0.4</v>
+        <v>0.3</v>
       </c>
       <c r="N55">
         <v>0</v>
@@ -3063,7 +3063,7 @@
         <v>0</v>
       </c>
       <c r="M57">
-        <v>0.3</v>
+        <v>0.4</v>
       </c>
       <c r="N57">
         <v>0</v>
@@ -3151,7 +3151,7 @@
         <v>0</v>
       </c>
       <c r="M59">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="N59">
         <v>0</v>
@@ -3195,7 +3195,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>0</v>
+        <v>0.3</v>
       </c>
       <c r="N60">
         <v>0</v>
